--- a/doc/测试相关/测试问题/定向流量需求问题跟踪.xlsx
+++ b/doc/测试相关/测试问题/定向流量需求问题跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="9070"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="需求问题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>编号</t>
   </si>
@@ -59,7 +59,8 @@
   </si>
   <si>
     <t>发退款短信 但不是立即发短信 我们是每个自然月的0：00发起订购 有异常就立即退款  但是短信提醒用户是要白天的某个时间点  ；提醒用户退款 还有服务中断
-——这些提醒类的短信内容待提供</t>
+——这些提醒类的短信内容待提供
+——待后期优化</t>
   </si>
   <si>
     <t>无</t>
@@ -83,24 +84,55 @@
     <t>open</t>
   </si>
   <si>
+    <t>后期需求优化</t>
+  </si>
+  <si>
     <t>包半年订购</t>
   </si>
   <si>
     <t>有效截止日期不同&amp;{[我方所收用户金额-沃家总管包月产品单价*（我方新订购关系有效截止月-沃家总管侧订购关系有效截止月）]&gt;=X元}
-——计算是否给用户发起订购的请求，此处的金额X数据范围？</t>
+——计算是否给用户发起订购的请求，此处的金额X数据范围？
+——待后期优化</t>
   </si>
   <si>
     <t>包年订购</t>
   </si>
   <si>
     <t>沃家侧发起的订购失败，则立即原路部分退款，退款金额为{50-向上取整[50-（已使用月份数*50/12）]}
-——已确认修改为向下取整，待修改需求文档</t>
+——已确认修改为向下取整，待修改需求文档
+——待后期优化</t>
   </si>
   <si>
     <t>定向流量</t>
   </si>
   <si>
-    <t>我方针对3类订购产品，在不同合作方、不同app上定义产品价格——待确认</t>
+    <t>我方针对3类订购产品，在不同合作方、不同app上定义产品价格——已确认，目前产品价格均一致，待确认合作方名称
+——7.15上线版本产品价格均一致</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
+    <t>获取验证码接口中的短信内容——待确认
+——已确认并提供</t>
+  </si>
+  <si>
+    <t>订购状态</t>
+  </si>
+  <si>
+    <t>状态3：订购成功&amp;无需返充话费，此时邮箱侧合作方查询该笔订购状态为：付款失败；
+——我们这边现在不是无需用户扣款吗？沃家侧是扣除话费啊？
+——已确认且达成一致，状态3：订购成功&amp;无需返充话费</t>
+  </si>
+  <si>
+    <t>业务流程图</t>
+  </si>
+  <si>
+    <t>后向订购业务流程图存在问题，待确认——已确认，待更新流程图，新增定时任务：合作方可订购资源，我们每日24：00去检测所有批次的有效期
+——已确认开发实现方式，与产品达成一致</t>
   </si>
 </sst>
 </file>
@@ -108,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,44 +171,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,11 +198,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,22 +284,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,30 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,27 +549,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -554,39 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +596,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,143 +666,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -780,10 +815,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,12 +1150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1122,258 +1169,341 @@
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.1818181818182" style="1" customWidth="1"/>
     <col min="10" max="11" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1818181818182" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.72727272727273" style="1"/>
+    <col min="12" max="12" width="9.27272727272727" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6363636363636" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="56" spans="1:13">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" ht="70" spans="1:13">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="9">
         <v>42920</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="56" spans="1:13">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" ht="70" spans="1:13">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9">
+        <v>42920</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="56" spans="1:13">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J4" s="9">
         <v>42920</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="42" spans="1:13">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="5" s="2" customFormat="1" ht="42" spans="1:13">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6">
-        <v>42920</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="4"/>
+      <c r="J5" s="10">
+        <v>42922</v>
+      </c>
+      <c r="K5" s="10">
+        <v>42929</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28" spans="1:13">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="6" s="2" customFormat="1" ht="28" spans="1:13">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6">
-        <v>42920</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4"/>
+      <c r="J6" s="10">
+        <v>42922</v>
+      </c>
+      <c r="K6" s="10">
+        <v>42929</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+    <row r="7" s="2" customFormat="1" ht="56" spans="1:13">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10">
+        <v>42922</v>
+      </c>
+      <c r="K7" s="10">
+        <v>42929</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="11"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+    <row r="8" s="2" customFormat="1" ht="56" spans="1:13">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>42922</v>
+      </c>
+      <c r="K8" s="10">
+        <v>42929</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
